--- a/biology/Mycologie/Boletus_edulis_var._clavipes/Boletus_edulis_var._clavipes.xlsx
+++ b/biology/Mycologie/Boletus_edulis_var._clavipes/Boletus_edulis_var._clavipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cèpe à pied clavé
-Boletus edulis var. clavipes ou Boletus clavipes, de son nom vernaculaire en français Cèpe à pied clavé, et au Québec, Cèpe des chênes[1], est une forme, autrefois considérée comme une espèce à part entière, de l'espèce de champignon Boletus edulis du genre Boletus dans la famille des Boletaceae. C'est une variété à réticulations proéminentes, à stipe clavé et à pousse exclusive dans les chênaies-hêtraies de Boletus edulis, le Cèpe de Bordeaux. 
+Boletus edulis var. clavipes ou Boletus clavipes, de son nom vernaculaire en français Cèpe à pied clavé, et au Québec, Cèpe des chênes, est une forme, autrefois considérée comme une espèce à part entière, de l'espèce de champignon Boletus edulis du genre Boletus dans la famille des Boletaceae. C'est une variété à réticulations proéminentes, à stipe clavé et à pousse exclusive dans les chênaies-hêtraies de Boletus edulis, le Cèpe de Bordeaux. 
 </t>
         </is>
       </c>
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nom binomial
-Boletus edulis var. clavipes Peck (1889)[2]
+          <t>Nom binomial</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boletus edulis var. clavipes Peck (1889)
 </t>
         </is>
       </c>
@@ -544,7 +561,9 @@
           <t>Description du Sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyménophore : 6-15 cm de diamètre, glabre, souvent un peu alvéolé, 
 Cuticule : brun orange, brun-jaune ou beige, parfois avec des taches rougeâtres par endroits.
@@ -581,9 +600,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amérique du Nord, Côte Est, mais a déjà été retrouvé en Europe[3], sous les chênes et occasionnel sous les hêtres.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amérique du Nord, Côte Est, mais a déjà été retrouvé en Europe, sous les chênes et occasionnel sous les hêtres.
 </t>
         </is>
       </c>
@@ -612,7 +633,9 @@
           <t>Saison</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">fin-juin - septembre
 </t>
@@ -643,7 +666,9 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Étant de facto un Cèpe de Bordeaux, sa comestibilité est la même ; excellente. Mais la rareté extrême de ce champignon devrait inciter à ne pas le consommer.
 </t>
